--- a/biology/Zoologie/Dvinosaurus/Dvinosaurus.xlsx
+++ b/biology/Zoologie/Dvinosaurus/Dvinosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dvinosauridae
 Dvinosaurus est un genre éteint de temnospondyles dvinosauriens ayant vécu au Permien dans ce qui est aujourd’hui la Russie. Les trois premières espèces, D. primus (l'espèce type), D. secundus et D. tertius, ont été décrites par le paléontologue russe Vladimir Prokhorovich Amalitskii en 1921. 
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dvinosaurus a été trouvé pour la première fois près du village de Sokolki à Arkhangelsk et nommé d'après la rivière de Dvina, qui était proche de la localité où il a été découvert.  
 L'holotype est catalogué comme PIN2005 / 35, et se compose seulement d'un crâne. 
@@ -547,11 +561,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cladogramme sans référence
-Le cladogramme de Marsicano et al. établit en 2021[2].
+Le cladogramme de Marsicano et al. établit en 2021.
 </t>
         </is>
       </c>
